--- a/MainTop/22.08.2025 Таня Озон/Поставка по городам/2 Дальний Восток.xlsx
+++ b/MainTop/22.08.2025 Таня Озон/Поставка по городам/2 Дальний Восток.xlsx
@@ -621,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
